--- a/ikkeKode/PEP6.xlsx
+++ b/ikkeKode/PEP6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marha\Documents\Skole\TEP4215\ikkeKode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C5F014-A7DF-4270-B1C2-ADC4FA449C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860E5EB-62EC-436E-BA9A-10AA932BED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
   <si>
     <t>Stream</t>
   </si>
@@ -65,14 +65,35 @@
     <t>mCp</t>
   </si>
   <si>
-    <t>Ingen pinch bare lag masse matcher bortover</t>
+    <t>Match 1</t>
+  </si>
+  <si>
+    <t>Duty Req</t>
+  </si>
+  <si>
+    <t>Node temp</t>
+  </si>
+  <si>
+    <t>Match Duty</t>
+  </si>
+  <si>
+    <t>Remaining Duty</t>
+  </si>
+  <si>
+    <t>Tdiff</t>
+  </si>
+  <si>
+    <t>Match 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +101,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +124,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,13 +161,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,106 +456,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B2:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G1" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
-        <v>500</v>
-      </c>
-      <c r="D3" s="3">
-        <f>C3/ABS(E3-F3)</f>
+      <c r="C4" s="2">
+        <v>500</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4/ABS(E4-F4)</f>
         <v>7.6923076923076925</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>90</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+      <c r="H4" s="6">
+        <f>C4</f>
+        <v>500</v>
+      </c>
+      <c r="I4" s="6">
+        <f>E4</f>
+        <v>90</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
+        <f>H4-J4</f>
+        <v>500</v>
+      </c>
+      <c r="L4" s="6">
+        <f>I4-J4/$D$4</f>
+        <v>90</v>
+      </c>
+      <c r="N4" s="6">
+        <f>K4</f>
+        <v>500</v>
+      </c>
+      <c r="O4" s="6">
+        <f>L4</f>
+        <v>90</v>
+      </c>
+      <c r="P4" s="8">
+        <v>500</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>N4-P4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <f>O4-P4/$D$4</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>400</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D6" si="0">C4/ABS(E4-F4)</f>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D7" si="0">C5/ABS(E5-F5)</f>
         <v>8</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>80</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="H5" s="6">
+        <f>C5</f>
+        <v>400</v>
+      </c>
+      <c r="I5" s="6">
+        <f>E5</f>
+        <v>80</v>
+      </c>
+      <c r="J5" s="8">
+        <f>H5</f>
+        <v>400</v>
+      </c>
+      <c r="K5" s="6">
+        <f>H5-J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f>I5-J5/$D$5</f>
+        <v>30</v>
+      </c>
+      <c r="N5" s="6">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <f>L5</f>
+        <v>30</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6">
+        <f>N5-P5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f>O5-P5/$D$5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="4">
         <v>600</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>10.909090909090908</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>15</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="H6" s="7">
+        <f>C6</f>
+        <v>600</v>
+      </c>
+      <c r="I6" s="7">
+        <f>F6</f>
+        <v>70</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <f>H6-J6</f>
+        <v>600</v>
+      </c>
+      <c r="L6" s="7">
+        <f>I6-J6/$D$6</f>
+        <v>70</v>
+      </c>
+      <c r="N6" s="7">
+        <f>K6</f>
+        <v>600</v>
+      </c>
+      <c r="O6" s="7">
+        <f>L6</f>
+        <v>70</v>
+      </c>
+      <c r="P6" s="8">
+        <f>P4</f>
+        <v>500</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>N6-P6</f>
+        <v>100</v>
+      </c>
+      <c r="R6" s="9">
+        <f>O6-P6/$D$6</f>
+        <v>24.166666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>400</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>11.428571428571429</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>25</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>60</v>
+      </c>
+      <c r="H7" s="7">
+        <f>C7</f>
+        <v>400</v>
+      </c>
+      <c r="I7" s="7">
+        <f>F7</f>
+        <v>60</v>
+      </c>
+      <c r="J7" s="8">
+        <f>H7</f>
+        <v>400</v>
+      </c>
+      <c r="K7" s="7">
+        <f>H7-J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <f>I7-J7/$D$7</f>
+        <v>25</v>
+      </c>
+      <c r="N7" s="7">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <f>L7</f>
+        <v>25</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7">
+        <f>N7-P7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7">
+        <f>O7-P7/$D$7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1">
+        <f>L5-L7</f>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="11">
+        <f>R4-R6</f>
+        <v>0.8333333333333357</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="R9" s="10"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H13" s="2">
+        <f>C4</f>
+        <v>500</v>
+      </c>
+      <c r="I13" s="2">
+        <f>F4</f>
+        <v>25</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <f>H13-J13</f>
+        <v>500</v>
+      </c>
+      <c r="L13" s="2">
+        <f>I13+J13/$D$4</f>
+        <v>25</v>
+      </c>
+      <c r="N13" s="2">
+        <f>K13</f>
+        <v>500</v>
+      </c>
+      <c r="O13" s="2">
+        <f>L13</f>
+        <v>25</v>
+      </c>
+      <c r="P13" s="12">
+        <v>500</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>N13-P13</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <f>O13+P13/$D$4</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H14" s="2">
+        <f>C5</f>
+        <v>400</v>
+      </c>
+      <c r="I14" s="2">
+        <f>F5</f>
+        <v>30</v>
+      </c>
+      <c r="J14" s="12">
+        <v>400</v>
+      </c>
+      <c r="K14" s="2">
+        <f>H14-J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <f>I14+J14/$D$5</f>
+        <v>80</v>
+      </c>
+      <c r="N14" s="2">
+        <f>K14</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <f>L14</f>
+        <v>80</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2">
+        <f>N14-P14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <f>O14+P14/$D$5</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H15" s="4">
+        <f>C6</f>
+        <v>600</v>
+      </c>
+      <c r="I15" s="4">
+        <f>E6</f>
+        <v>15</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <f>H15-J15</f>
+        <v>600</v>
+      </c>
+      <c r="L15" s="4">
+        <f>I15+J15/$D$6</f>
+        <v>15</v>
+      </c>
+      <c r="N15" s="4">
+        <f>K15</f>
+        <v>600</v>
+      </c>
+      <c r="O15" s="4">
+        <f>L15</f>
+        <v>15</v>
+      </c>
+      <c r="P15" s="12">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>N15-P15</f>
+        <v>100</v>
+      </c>
+      <c r="R15" s="13">
+        <f>O15+P15/$D$6</f>
+        <v>60.833333333333336</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="H16" s="4">
+        <f>C7</f>
+        <v>400</v>
+      </c>
+      <c r="I16" s="4">
+        <f>E7</f>
+        <v>25</v>
+      </c>
+      <c r="J16" s="12">
+        <v>400</v>
+      </c>
+      <c r="K16" s="4">
+        <f>H16-J16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <f>I16+J16/$D$7</f>
+        <v>60</v>
+      </c>
+      <c r="N16" s="4">
+        <f>K16</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <f>L16</f>
+        <v>60</v>
+      </c>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4">
+        <f>N16-P16</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <f>O16+P16/$D$7</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18" x14ac:dyDescent="0.3">
+      <c r="K17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="1">
+        <f>L14-L16</f>
+        <v>20</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="11">
+        <f>R13-R15</f>
+        <v>29.166666666666664</v>
       </c>
     </row>
   </sheetData>

--- a/ikkeKode/PEP6.xlsx
+++ b/ikkeKode/PEP6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marha\Documents\Skole\TEP4215\ikkeKode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Skole\TEP4215\ikkeKode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1860E5EB-62EC-436E-BA9A-10AA932BED58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE76BD3-189A-47BA-B183-7F5DF8C1D97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Stream</t>
   </si>
@@ -91,18 +91,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,21 +155,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,27 +446,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:R17"/>
+  <dimension ref="B2:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
@@ -484,7 +474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -548,44 +538,44 @@
       <c r="F4" s="2">
         <v>25</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="2">
         <f>C4</f>
         <v>500</v>
       </c>
-      <c r="I4" s="6">
-        <f>E4</f>
-        <v>90</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
+      <c r="I4" s="2">
+        <f>F4</f>
+        <v>25</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2">
         <f>H4-J4</f>
         <v>500</v>
       </c>
-      <c r="L4" s="6">
-        <f>I4-J4/$D$4</f>
-        <v>90</v>
-      </c>
-      <c r="N4" s="6">
-        <f>K4</f>
+      <c r="L4" s="2">
+        <f>I4+J4/$D$4</f>
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ref="N4:O7" si="0">K4</f>
         <v>500</v>
       </c>
-      <c r="O4" s="6">
-        <f>L4</f>
-        <v>90</v>
+      <c r="O4" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
       </c>
       <c r="P4" s="8">
         <v>500</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="2">
         <f>N4-P4</f>
         <v>0</v>
       </c>
-      <c r="R4" s="6">
-        <f>O4-P4/$D$4</f>
-        <v>25</v>
+      <c r="R4" s="2">
+        <f>O4+P4/$D$4</f>
+        <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -593,7 +583,7 @@
         <v>400</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D7" si="0">C5/ABS(E5-F5)</f>
+        <f t="shared" ref="D5:D7" si="1">C5/ABS(E5-F5)</f>
         <v>8</v>
       </c>
       <c r="E5" s="2">
@@ -602,45 +592,44 @@
       <c r="F5" s="2">
         <v>30</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <f>C5</f>
         <v>400</v>
       </c>
-      <c r="I5" s="6">
-        <f>E5</f>
-        <v>80</v>
+      <c r="I5" s="2">
+        <f>F5</f>
+        <v>30</v>
       </c>
       <c r="J5" s="8">
-        <f>H5</f>
         <v>400</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="2">
         <f>H5-J5</f>
         <v>0</v>
       </c>
-      <c r="L5" s="6">
-        <f>I5-J5/$D$5</f>
-        <v>30</v>
-      </c>
-      <c r="N5" s="6">
-        <f>K5</f>
+      <c r="L5" s="2">
+        <f>I5+J5/$D$5</f>
+        <v>80</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5" s="6">
-        <f>L5</f>
-        <v>30</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6">
+      <c r="O5" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2">
         <f>N5-P5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="6">
-        <f>O5-P5/$D$5</f>
-        <v>30</v>
+      <c r="R5" s="2">
+        <f>O5+P5/$D$5</f>
+        <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -648,7 +637,7 @@
         <v>600</v>
       </c>
       <c r="D6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.909090909090908</v>
       </c>
       <c r="E6" s="4">
@@ -657,45 +646,44 @@
       <c r="F6" s="4">
         <v>70</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <f>C6</f>
         <v>600</v>
       </c>
-      <c r="I6" s="7">
-        <f>F6</f>
-        <v>70</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7">
+      <c r="I6" s="4">
+        <f>E6</f>
+        <v>15</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <f>H6-J6</f>
         <v>600</v>
       </c>
-      <c r="L6" s="7">
-        <f>I6-J6/$D$6</f>
-        <v>70</v>
-      </c>
-      <c r="N6" s="7">
-        <f>K6</f>
+      <c r="L6" s="4">
+        <f>I6+J6/$D$6</f>
+        <v>15</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="O6" s="7">
-        <f>L6</f>
-        <v>70</v>
+      <c r="O6" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="P6" s="8">
-        <f>P4</f>
         <v>500</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="4">
         <f>N6-P6</f>
         <v>100</v>
       </c>
       <c r="R6" s="9">
-        <f>O6-P6/$D$6</f>
-        <v>24.166666666666664</v>
+        <f>O6+P6/$D$6</f>
+        <v>60.833333333333336</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
@@ -703,7 +691,7 @@
         <v>400</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.428571428571429</v>
       </c>
       <c r="E7" s="4">
@@ -712,270 +700,61 @@
       <c r="F7" s="4">
         <v>60</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <f>C7</f>
         <v>400</v>
       </c>
-      <c r="I7" s="7">
-        <f>F7</f>
-        <v>60</v>
+      <c r="I7" s="4">
+        <f>E7</f>
+        <v>25</v>
       </c>
       <c r="J7" s="8">
-        <f>H7</f>
         <v>400</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="4">
         <f>H7-J7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="7">
-        <f>I7-J7/$D$7</f>
-        <v>25</v>
-      </c>
-      <c r="N7" s="7">
-        <f>K7</f>
+      <c r="L7" s="4">
+        <f>I7+J7/$D$7</f>
+        <v>60</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <f>L7</f>
-        <v>25</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7">
+      <c r="O7" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
         <f>N7-P7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="7">
-        <f>O7-P7/$D$7</f>
-        <v>25</v>
+      <c r="R7" s="4">
+        <f>O7+P7/$D$7</f>
+        <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="1">
         <f>L5-L7</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="7">
         <f>R4-R6</f>
-        <v>0.8333333333333357</v>
+        <v>29.166666666666664</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="R9" s="10"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H13" s="2">
-        <f>C4</f>
-        <v>500</v>
-      </c>
-      <c r="I13" s="2">
-        <f>F4</f>
-        <v>25</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
-        <f>H13-J13</f>
-        <v>500</v>
-      </c>
-      <c r="L13" s="2">
-        <f>I13+J13/$D$4</f>
-        <v>25</v>
-      </c>
-      <c r="N13" s="2">
-        <f>K13</f>
-        <v>500</v>
-      </c>
-      <c r="O13" s="2">
-        <f>L13</f>
-        <v>25</v>
-      </c>
-      <c r="P13" s="12">
-        <v>500</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>N13-P13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <f>O13+P13/$D$4</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H14" s="2">
-        <f>C5</f>
-        <v>400</v>
-      </c>
-      <c r="I14" s="2">
-        <f>F5</f>
-        <v>30</v>
-      </c>
-      <c r="J14" s="12">
-        <v>400</v>
-      </c>
-      <c r="K14" s="2">
-        <f>H14-J14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <f>I14+J14/$D$5</f>
-        <v>80</v>
-      </c>
-      <c r="N14" s="2">
-        <f>K14</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2">
-        <f>L14</f>
-        <v>80</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2">
-        <f>N14-P14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <f>O14+P14/$D$5</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H15" s="4">
-        <f>C6</f>
-        <v>600</v>
-      </c>
-      <c r="I15" s="4">
-        <f>E6</f>
-        <v>15</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4">
-        <f>H15-J15</f>
-        <v>600</v>
-      </c>
-      <c r="L15" s="4">
-        <f>I15+J15/$D$6</f>
-        <v>15</v>
-      </c>
-      <c r="N15" s="4">
-        <f>K15</f>
-        <v>600</v>
-      </c>
-      <c r="O15" s="4">
-        <f>L15</f>
-        <v>15</v>
-      </c>
-      <c r="P15" s="12">
-        <v>500</v>
-      </c>
-      <c r="Q15" s="4">
-        <f>N15-P15</f>
-        <v>100</v>
-      </c>
-      <c r="R15" s="13">
-        <f>O15+P15/$D$6</f>
-        <v>60.833333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H16" s="4">
-        <f>C7</f>
-        <v>400</v>
-      </c>
-      <c r="I16" s="4">
-        <f>E7</f>
-        <v>25</v>
-      </c>
-      <c r="J16" s="12">
-        <v>400</v>
-      </c>
-      <c r="K16" s="4">
-        <f>H16-J16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <f>I16+J16/$D$7</f>
-        <v>60</v>
-      </c>
-      <c r="N16" s="4">
-        <f>K16</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <f>L16</f>
-        <v>60</v>
-      </c>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4">
-        <f>N16-P16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <f>O16+P16/$D$7</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="11:18" x14ac:dyDescent="0.3">
-      <c r="K17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="1">
-        <f>L14-L16</f>
-        <v>20</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="11">
-        <f>R13-R15</f>
-        <v>29.166666666666664</v>
-      </c>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
